--- a/Splendor/meta/Num Legal Moves.xlsx
+++ b/Splendor/meta/Num Legal Moves.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Python_Files\Splendor\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82C764E-5A3A-4C70-9AAF-0F63E58F539D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592ED0EC-98E9-4D83-A287-E48605C6DF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20115" yWindow="3810" windowWidth="15120" windowHeight="15450" xr2:uid="{92015675-1BB9-431B-896E-487295229ABF}"/>
+    <workbookView xWindow="19455" yWindow="2115" windowWidth="15120" windowHeight="15450" activeTab="1" xr2:uid="{92015675-1BB9-431B-896E-487295229ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Take 1*3 of 5 gems</t>
   </si>
@@ -75,6 +76,39 @@
   </si>
   <si>
     <t>3 choose 1</t>
+  </si>
+  <si>
+    <t>Take gems</t>
+  </si>
+  <si>
+    <t>Take any 3</t>
+  </si>
+  <si>
+    <t>Take 2 of any 1</t>
+  </si>
+  <si>
+    <t>take 2 of 5</t>
+  </si>
+  <si>
+    <t>take 1 of 5</t>
+  </si>
+  <si>
+    <t>Reserve</t>
+  </si>
+  <si>
+    <t>any of 12</t>
+  </si>
+  <si>
+    <t>top of deck</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>reserves</t>
   </si>
 </sst>
 </file>
@@ -451,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD798F5-4BFA-4072-99C1-AF1242696A3F}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,4 +581,136 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C30089-34F6-44D0-A5DE-259EE66C3AA6}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <f>10*10*10*5</f>
+        <v>5000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>SUM(C2:C12)</f>
+        <v>5110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Splendor/meta/Num Legal Moves.xlsx
+++ b/Splendor/meta/Num Legal Moves.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Python_Files\Splendor\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592ED0EC-98E9-4D83-A287-E48605C6DF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A43072-8363-49EE-98E8-3541336C7065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19455" yWindow="2115" windowWidth="15120" windowHeight="15450" activeTab="1" xr2:uid="{92015675-1BB9-431B-896E-487295229ABF}"/>
+    <workbookView xWindow="19455" yWindow="2115" windowWidth="15120" windowHeight="15450" activeTab="2" xr2:uid="{92015675-1BB9-431B-896E-487295229ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Take 1*3 of 5 gems</t>
   </si>
@@ -109,6 +110,15 @@
   </si>
   <si>
     <t>reserves</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>5 take 1, 5 take 2, 5 discard</t>
+  </si>
+  <si>
+    <t>with gold</t>
   </si>
 </sst>
 </file>
@@ -587,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C30089-34F6-44D0-A5DE-259EE66C3AA6}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="A7:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,4 +723,82 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF371560-F176-4882-A5A2-4A123F8A120B}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>SUM(B1:B6)</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Splendor/meta/Num Legal Moves.xlsx
+++ b/Splendor/meta/Num Legal Moves.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Python_Files\Splendor\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Coding Programs\GitHub\Splendor-AI\Splendor\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A43072-8363-49EE-98E8-3541336C7065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72818314-CAEB-4BED-851F-041993C53ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19455" yWindow="2115" windowWidth="15120" windowHeight="15450" activeTab="2" xr2:uid="{92015675-1BB9-431B-896E-487295229ABF}"/>
+    <workbookView xWindow="24390" yWindow="3840" windowWidth="20475" windowHeight="15885" activeTab="3" xr2:uid="{92015675-1BB9-431B-896E-487295229ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="state size" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>Take 1*3 of 5 gems</t>
   </si>
@@ -119,15 +120,94 @@
   </si>
   <si>
     <t>with gold</t>
+  </si>
+  <si>
+    <t>board</t>
+  </si>
+  <si>
+    <t>tier 1</t>
+  </si>
+  <si>
+    <t>tier 2</t>
+  </si>
+  <si>
+    <t>tier 3</t>
+  </si>
+  <si>
+    <t>nobles</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>4 cards</t>
+  </si>
+  <si>
+    <t>3 cards</t>
+  </si>
+  <si>
+    <t>5 gemReward one hot, points, 5 gemCost one hot</t>
+  </si>
+  <si>
+    <t>points, 5 gemCost one hot</t>
+  </si>
+  <si>
+    <t>tiers</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>enemy</t>
+  </si>
+  <si>
+    <t>5 gems</t>
+  </si>
+  <si>
+    <t>sumGems</t>
+  </si>
+  <si>
+    <t>5 cards</t>
+  </si>
+  <si>
+    <t>reserved</t>
+  </si>
+  <si>
+    <t>up to 3 reserved cards (cards are length 11)</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>[0.0] thing?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -154,11 +234,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,7 +811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF371560-F176-4882-A5A2-4A123F8A120B}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -801,4 +883,185 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAA31F8-D2EC-426E-9339-66AFE464F884}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1">
+        <f>11*4</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G3" si="0">11*4</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4">
+        <f>6*3</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="3">
+        <f>SUM(G1:G4)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="2">
+        <f>SUM(G6:G10)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="2">
+        <f>G11</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13" s="3">
+        <f>SUM(G11:G12)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f>G5+G13+G14</f>
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>